--- a/storage/pricelists/3/marbo.xlsx
+++ b/storage/pricelists/3/marbo.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DEV\PythonProjects\pricecomp\storage\pricelists\3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5971EE7-1D9A-41B9-A446-01A2059126E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="1707">
   <si>
     <t>ID</t>
   </si>
@@ -5122,9 +5128,6 @@
     <t>5903641003353</t>
   </si>
   <si>
-    <t>MS-29153</t>
-  </si>
-  <si>
     <t>Huśtawka jednomiejscowa MO-001 - Marbo Sport</t>
   </si>
   <si>
@@ -5132,13 +5135,19 @@
   </si>
   <si>
     <t>5903641003346</t>
+  </si>
+  <si>
+    <t>MS-562345</t>
+  </si>
+  <si>
+    <t>MS-5634445</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5171,17 +5180,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5219,7 +5236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5253,6 +5270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5287,9 +5305,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5462,14 +5481,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P427"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P428"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="I428" sqref="I428"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5519,7 +5543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5542,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>57.673</v>
+        <v>57.673000000000002</v>
       </c>
       <c r="J2">
         <v>951</v>
@@ -5563,7 +5587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5586,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>48.675</v>
+        <v>48.674999999999997</v>
       </c>
       <c r="J3">
         <v>802</v>
@@ -5607,7 +5631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5630,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>40.425</v>
+        <v>40.424999999999997</v>
       </c>
       <c r="J4">
         <v>666</v>
@@ -5651,7 +5675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -5674,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>28.798</v>
+        <v>28.797999999999998</v>
       </c>
       <c r="J5">
         <v>474</v>
@@ -5695,7 +5719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5718,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>213.675</v>
+        <v>213.67500000000001</v>
       </c>
       <c r="J6">
         <v>3523</v>
@@ -5739,7 +5763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -5762,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>56.925</v>
+        <v>56.924999999999997</v>
       </c>
       <c r="J7">
         <v>937</v>
@@ -5783,7 +5807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5806,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>312.675</v>
+        <v>312.67500000000001</v>
       </c>
       <c r="J8">
         <v>5155</v>
@@ -5827,7 +5851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5871,7 +5895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -5894,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J10">
         <v>598</v>
@@ -5915,7 +5939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -5938,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>59.40000000000001</v>
+        <v>59.400000000000013</v>
       </c>
       <c r="J11">
         <v>979</v>
@@ -5959,7 +5983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -5982,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>40.425</v>
+        <v>40.424999999999997</v>
       </c>
       <c r="J12">
         <v>666</v>
@@ -6003,7 +6027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -6047,7 +6071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -6091,7 +6115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -6135,7 +6159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -6158,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>246.675</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="J16">
         <v>4068</v>
@@ -6179,7 +6203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -6202,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>287.925</v>
+        <v>287.92500000000001</v>
       </c>
       <c r="J17">
         <v>4747</v>
@@ -6223,7 +6247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -6267,7 +6291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -6311,7 +6335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -6355,7 +6379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -6399,7 +6423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -6422,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>8684.049999999999</v>
+        <v>8684.0499999999993</v>
       </c>
       <c r="J22">
         <v>143223</v>
@@ -6443,7 +6467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -6487,7 +6511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -6531,7 +6555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -6554,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2543.3</v>
+        <v>2543.3000000000002</v>
       </c>
       <c r="J25">
         <v>41944</v>
@@ -6575,7 +6599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -6619,7 +6643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -6663,7 +6687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -6686,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>8771.780000000001</v>
+        <v>8771.7800000000007</v>
       </c>
       <c r="J28">
         <v>144669</v>
@@ -6707,7 +6731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -6751,7 +6775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -6795,7 +6819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -6839,7 +6863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -6883,7 +6907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -6927,7 +6951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -6971,7 +6995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -7015,7 +7039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -7059,7 +7083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -7103,7 +7127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -7147,7 +7171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -7191,7 +7215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -7235,7 +7259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -7279,7 +7303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -7302,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>32.175</v>
+        <v>32.174999999999997</v>
       </c>
       <c r="J42">
         <v>529</v>
@@ -7323,7 +7347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -7367,7 +7391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -7411,7 +7435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -7455,7 +7479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>194</v>
       </c>
@@ -7478,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>61.798</v>
+        <v>61.798000000000002</v>
       </c>
       <c r="J46">
         <v>1018</v>
@@ -7499,7 +7523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -7543,7 +7567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>202</v>
       </c>
@@ -7587,7 +7611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -7631,7 +7655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>209</v>
       </c>
@@ -7654,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <v>24.739</v>
+        <v>24.739000000000001</v>
       </c>
       <c r="J50">
         <v>408</v>
@@ -7675,7 +7699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>213</v>
       </c>
@@ -7719,7 +7743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -7763,7 +7787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>220</v>
       </c>
@@ -7807,7 +7831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>224</v>
       </c>
@@ -7830,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <v>213.675</v>
+        <v>213.67500000000001</v>
       </c>
       <c r="J54">
         <v>3523</v>
@@ -7851,7 +7875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -7874,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>213.675</v>
+        <v>213.67500000000001</v>
       </c>
       <c r="J55">
         <v>3523</v>
@@ -7895,7 +7919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -7918,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>263.175</v>
+        <v>263.17500000000001</v>
       </c>
       <c r="J56">
         <v>4339</v>
@@ -7939,7 +7963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>235</v>
       </c>
@@ -7962,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>329.175</v>
+        <v>329.17500000000001</v>
       </c>
       <c r="J57">
         <v>5428</v>
@@ -7983,7 +8007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -8027,7 +8051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>243</v>
       </c>
@@ -8071,7 +8095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>247</v>
       </c>
@@ -8115,7 +8139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -8159,7 +8183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -8203,7 +8227,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>260</v>
       </c>
@@ -8247,7 +8271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>264</v>
       </c>
@@ -8291,7 +8315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>268</v>
       </c>
@@ -8335,7 +8359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>272</v>
       </c>
@@ -8379,7 +8403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>276</v>
       </c>
@@ -8402,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>263.34</v>
+        <v>263.33999999999997</v>
       </c>
       <c r="J67">
         <v>4342</v>
@@ -8423,7 +8447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -8467,7 +8491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>284</v>
       </c>
@@ -8511,7 +8535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -8534,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <v>77.22000000000001</v>
+        <v>77.220000000000013</v>
       </c>
       <c r="J70">
         <v>1273</v>
@@ -8555,7 +8579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>292</v>
       </c>
@@ -8578,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <v>270.6</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="J71">
         <v>4462</v>
@@ -8599,7 +8623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>296</v>
       </c>
@@ -8643,7 +8667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -8687,7 +8711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>304</v>
       </c>
@@ -8731,7 +8755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -8775,7 +8799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>312</v>
       </c>
@@ -8819,7 +8843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>316</v>
       </c>
@@ -8842,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>146.52</v>
+        <v>146.52000000000001</v>
       </c>
       <c r="J77">
         <v>2416</v>
@@ -8863,7 +8887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -8907,7 +8931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>324</v>
       </c>
@@ -8951,7 +8975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>328</v>
       </c>
@@ -8995,7 +9019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>332</v>
       </c>
@@ -9018,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="I81">
-        <v>287.1</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="J81">
         <v>4734</v>
@@ -9039,7 +9063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>336</v>
       </c>
@@ -9083,7 +9107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>340</v>
       </c>
@@ -9127,7 +9151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>344</v>
       </c>
@@ -9171,7 +9195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>348</v>
       </c>
@@ -9215,7 +9239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>352</v>
       </c>
@@ -9259,7 +9283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>356</v>
       </c>
@@ -9303,7 +9327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>360</v>
       </c>
@@ -9326,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="I88">
-        <v>325.3800000000001</v>
+        <v>325.38000000000011</v>
       </c>
       <c r="J88">
         <v>5365</v>
@@ -9347,7 +9371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>364</v>
       </c>
@@ -9391,7 +9415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>368</v>
       </c>
@@ -9435,7 +9459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>372</v>
       </c>
@@ -9479,7 +9503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>376</v>
       </c>
@@ -9523,7 +9547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>380</v>
       </c>
@@ -9567,7 +9591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>384</v>
       </c>
@@ -9611,7 +9635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>388</v>
       </c>
@@ -9634,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="I95">
-        <v>77.22000000000001</v>
+        <v>77.220000000000013</v>
       </c>
       <c r="J95">
         <v>1273</v>
@@ -9655,7 +9679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -9699,7 +9723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>396</v>
       </c>
@@ -9722,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>550.2</v>
+        <v>550.20000000000005</v>
       </c>
       <c r="J97">
         <v>9073</v>
@@ -9743,7 +9767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>400</v>
       </c>
@@ -9787,7 +9811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>404</v>
       </c>
@@ -9810,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="I99">
-        <v>82.42300000000002</v>
+        <v>82.423000000000016</v>
       </c>
       <c r="J99">
         <v>1359</v>
@@ -9831,7 +9855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>408</v>
       </c>
@@ -9875,7 +9899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -9919,7 +9943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>416</v>
       </c>
@@ -9963,7 +9987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -9986,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="I103">
-        <v>164.175</v>
+        <v>164.17500000000001</v>
       </c>
       <c r="J103">
         <v>2707</v>
@@ -10007,7 +10031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>424</v>
       </c>
@@ -10030,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="I104">
-        <v>329.175</v>
+        <v>329.17500000000001</v>
       </c>
       <c r="J104">
         <v>5428</v>
@@ -10051,7 +10075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>428</v>
       </c>
@@ -10074,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="I105">
-        <v>246.675</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="J105">
         <v>4068</v>
@@ -10095,7 +10119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>432</v>
       </c>
@@ -10118,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="I106">
-        <v>246.675</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="J106">
         <v>4068</v>
@@ -10139,7 +10163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>436</v>
       </c>
@@ -10162,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="I107">
-        <v>246.675</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="J107">
         <v>4068</v>
@@ -10183,7 +10207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>440</v>
       </c>
@@ -10227,7 +10251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>443</v>
       </c>
@@ -10271,7 +10295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>447</v>
       </c>
@@ -10315,7 +10339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>451</v>
       </c>
@@ -10359,7 +10383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>455</v>
       </c>
@@ -10403,7 +10427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>459</v>
       </c>
@@ -10447,7 +10471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>463</v>
       </c>
@@ -10491,7 +10515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>467</v>
       </c>
@@ -10535,7 +10559,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>471</v>
       </c>
@@ -10558,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="I116">
-        <v>32.175</v>
+        <v>32.174999999999997</v>
       </c>
       <c r="J116">
         <v>529</v>
@@ -10579,7 +10603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>475</v>
       </c>
@@ -10602,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="I117">
-        <v>205.425</v>
+        <v>205.42500000000001</v>
       </c>
       <c r="J117">
         <v>3387</v>
@@ -10623,7 +10647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>479</v>
       </c>
@@ -10646,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="I118">
-        <v>164.175</v>
+        <v>164.17500000000001</v>
       </c>
       <c r="J118">
         <v>2707</v>
@@ -10667,7 +10691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>483</v>
       </c>
@@ -10690,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="I119">
-        <v>329.175</v>
+        <v>329.17500000000001</v>
       </c>
       <c r="J119">
         <v>5428</v>
@@ -10711,7 +10735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>487</v>
       </c>
@@ -10755,7 +10779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>491</v>
       </c>
@@ -10799,7 +10823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>495</v>
       </c>
@@ -10843,7 +10867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>499</v>
       </c>
@@ -10887,7 +10911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>503</v>
       </c>
@@ -10931,7 +10955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>507</v>
       </c>
@@ -10975,7 +10999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>511</v>
       </c>
@@ -11019,7 +11043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>515</v>
       </c>
@@ -11063,7 +11087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>519</v>
       </c>
@@ -11107,7 +11131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>523</v>
       </c>
@@ -11130,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="I129">
-        <v>329.175</v>
+        <v>329.17500000000001</v>
       </c>
       <c r="J129">
         <v>5428</v>
@@ -11151,7 +11175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -11174,7 +11198,7 @@
         <v>1</v>
       </c>
       <c r="I130">
-        <v>29.623</v>
+        <v>29.623000000000001</v>
       </c>
       <c r="J130">
         <v>487</v>
@@ -11195,7 +11219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>531</v>
       </c>
@@ -11218,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="I131">
-        <v>221.925</v>
+        <v>221.92500000000001</v>
       </c>
       <c r="J131">
         <v>3660</v>
@@ -11239,7 +11263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>535</v>
       </c>
@@ -11262,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="I132">
-        <v>155.925</v>
+        <v>155.92500000000001</v>
       </c>
       <c r="J132">
         <v>2571</v>
@@ -11283,7 +11307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>539</v>
       </c>
@@ -11306,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="I133">
-        <v>57.75000000000001</v>
+        <v>57.750000000000007</v>
       </c>
       <c r="J133">
         <v>951</v>
@@ -11327,7 +11351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>543</v>
       </c>
@@ -11371,7 +11395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>547</v>
       </c>
@@ -11394,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="I135">
-        <v>139.425</v>
+        <v>139.42500000000001</v>
       </c>
       <c r="J135">
         <v>2298</v>
@@ -11415,7 +11439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>551</v>
       </c>
@@ -11438,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="I136">
-        <v>205.425</v>
+        <v>205.42500000000001</v>
       </c>
       <c r="J136">
         <v>3387</v>
@@ -11459,7 +11483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>555</v>
       </c>
@@ -11482,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="I137">
-        <v>246.675</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="J137">
         <v>4068</v>
@@ -11503,7 +11527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>559</v>
       </c>
@@ -11547,7 +11571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>563</v>
       </c>
@@ -11591,7 +11615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>567</v>
       </c>
@@ -11635,7 +11659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>570</v>
       </c>
@@ -11679,7 +11703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>574</v>
       </c>
@@ -11723,7 +11747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>578</v>
       </c>
@@ -11767,7 +11791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>582</v>
       </c>
@@ -11811,7 +11835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>586</v>
       </c>
@@ -11855,7 +11879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>590</v>
       </c>
@@ -11899,7 +11923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>594</v>
       </c>
@@ -11943,7 +11967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>598</v>
       </c>
@@ -11987,7 +12011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>602</v>
       </c>
@@ -12031,7 +12055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>606</v>
       </c>
@@ -12075,7 +12099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>610</v>
       </c>
@@ -12119,7 +12143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>614</v>
       </c>
@@ -12163,7 +12187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>618</v>
       </c>
@@ -12207,7 +12231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>622</v>
       </c>
@@ -12251,7 +12275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>626</v>
       </c>
@@ -12295,7 +12319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>630</v>
       </c>
@@ -12339,7 +12363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>634</v>
       </c>
@@ -12383,7 +12407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>638</v>
       </c>
@@ -12427,7 +12451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>642</v>
       </c>
@@ -12471,7 +12495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>646</v>
       </c>
@@ -12515,7 +12539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>650</v>
       </c>
@@ -12559,7 +12583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>654</v>
       </c>
@@ -12603,7 +12627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>658</v>
       </c>
@@ -12647,7 +12671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>662</v>
       </c>
@@ -12691,7 +12715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>666</v>
       </c>
@@ -12735,7 +12759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>670</v>
       </c>
@@ -12779,7 +12803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>674</v>
       </c>
@@ -12802,7 +12826,7 @@
         <v>1</v>
       </c>
       <c r="I167">
-        <v>5025.6</v>
+        <v>5025.6000000000004</v>
       </c>
       <c r="J167">
         <v>82885</v>
@@ -12823,7 +12847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>678</v>
       </c>
@@ -12867,7 +12891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>682</v>
       </c>
@@ -12890,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="I169">
-        <v>47.014</v>
+        <v>47.014000000000003</v>
       </c>
       <c r="J169">
         <v>774</v>
@@ -12911,7 +12935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>686</v>
       </c>
@@ -12934,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="I170">
-        <v>48.66400000000001</v>
+        <v>48.664000000000009</v>
       </c>
       <c r="J170">
         <v>802</v>
@@ -12955,7 +12979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>690</v>
       </c>
@@ -12978,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="I171">
-        <v>81.67500000000001</v>
+        <v>81.675000000000011</v>
       </c>
       <c r="J171">
         <v>1347</v>
@@ -12999,7 +13023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>694</v>
       </c>
@@ -13022,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="I172">
-        <v>65.989</v>
+        <v>65.989000000000004</v>
       </c>
       <c r="J172">
         <v>1087</v>
@@ -13043,7 +13067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>698</v>
       </c>
@@ -13087,7 +13111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>702</v>
       </c>
@@ -13131,7 +13155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>706</v>
       </c>
@@ -13175,7 +13199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>710</v>
       </c>
@@ -13219,7 +13243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>714</v>
       </c>
@@ -13263,7 +13287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>718</v>
       </c>
@@ -13307,7 +13331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>722</v>
       </c>
@@ -13351,7 +13375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>726</v>
       </c>
@@ -13395,7 +13419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>730</v>
       </c>
@@ -13439,7 +13463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>734</v>
       </c>
@@ -13483,7 +13507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>738</v>
       </c>
@@ -13527,7 +13551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>742</v>
       </c>
@@ -13571,7 +13595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>746</v>
       </c>
@@ -13615,7 +13639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>750</v>
       </c>
@@ -13659,7 +13683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>754</v>
       </c>
@@ -13703,7 +13727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>758</v>
       </c>
@@ -13747,7 +13771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>762</v>
       </c>
@@ -13791,7 +13815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>766</v>
       </c>
@@ -13835,7 +13859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>770</v>
       </c>
@@ -13879,7 +13903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>774</v>
       </c>
@@ -13923,7 +13947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>778</v>
       </c>
@@ -13967,7 +13991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>782</v>
       </c>
@@ -14011,7 +14035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>786</v>
       </c>
@@ -14055,7 +14079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>790</v>
       </c>
@@ -14099,7 +14123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>794</v>
       </c>
@@ -14143,7 +14167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>798</v>
       </c>
@@ -14187,7 +14211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>802</v>
       </c>
@@ -14231,7 +14255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>806</v>
       </c>
@@ -14275,7 +14299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>810</v>
       </c>
@@ -14319,7 +14343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>814</v>
       </c>
@@ -14363,7 +14387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>818</v>
       </c>
@@ -14407,7 +14431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>822</v>
       </c>
@@ -14451,7 +14475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>826</v>
       </c>
@@ -14495,7 +14519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>830</v>
       </c>
@@ -14539,7 +14563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>834</v>
       </c>
@@ -14583,7 +14607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>838</v>
       </c>
@@ -14627,7 +14651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>843</v>
       </c>
@@ -14671,7 +14695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>847</v>
       </c>
@@ -14715,7 +14739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>851</v>
       </c>
@@ -14759,7 +14783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>855</v>
       </c>
@@ -14803,7 +14827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>859</v>
       </c>
@@ -14847,7 +14871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>863</v>
       </c>
@@ -14891,7 +14915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>867</v>
       </c>
@@ -14935,7 +14959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>871</v>
       </c>
@@ -14979,7 +15003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>875</v>
       </c>
@@ -15023,7 +15047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>879</v>
       </c>
@@ -15067,7 +15091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>883</v>
       </c>
@@ -15111,7 +15135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>887</v>
       </c>
@@ -15155,7 +15179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>891</v>
       </c>
@@ -15199,7 +15223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>895</v>
       </c>
@@ -15243,7 +15267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>899</v>
       </c>
@@ -15287,7 +15311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>903</v>
       </c>
@@ -15310,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="I224">
-        <v>246.675</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="J224">
         <v>4068</v>
@@ -15331,7 +15355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>907</v>
       </c>
@@ -15375,7 +15399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>911</v>
       </c>
@@ -15419,7 +15443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>915</v>
       </c>
@@ -15442,7 +15466,7 @@
         <v>1</v>
       </c>
       <c r="I227">
-        <v>329.175</v>
+        <v>329.17500000000001</v>
       </c>
       <c r="J227">
         <v>5428</v>
@@ -15463,7 +15487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>919</v>
       </c>
@@ -15507,7 +15531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>923</v>
       </c>
@@ -15551,7 +15575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>927</v>
       </c>
@@ -15595,7 +15619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>931</v>
       </c>
@@ -15639,7 +15663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>935</v>
       </c>
@@ -15683,7 +15707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>939</v>
       </c>
@@ -15706,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="I233">
-        <v>205.425</v>
+        <v>205.42500000000001</v>
       </c>
       <c r="J233">
         <v>3387</v>
@@ -15727,7 +15751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>943</v>
       </c>
@@ -15771,7 +15795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>947</v>
       </c>
@@ -15815,7 +15839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>951</v>
       </c>
@@ -15859,7 +15883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>955</v>
       </c>
@@ -15903,7 +15927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>959</v>
       </c>
@@ -15947,7 +15971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>963</v>
       </c>
@@ -15991,7 +16015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>967</v>
       </c>
@@ -16035,7 +16059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>971</v>
       </c>
@@ -16058,7 +16082,7 @@
         <v>1</v>
       </c>
       <c r="I241">
-        <v>29.623</v>
+        <v>29.623000000000001</v>
       </c>
       <c r="J241">
         <v>487</v>
@@ -16079,7 +16103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>975</v>
       </c>
@@ -16102,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="I242">
-        <v>164.175</v>
+        <v>164.17500000000001</v>
       </c>
       <c r="J242">
         <v>2707</v>
@@ -16123,7 +16147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>979</v>
       </c>
@@ -16146,7 +16170,7 @@
         <v>1</v>
       </c>
       <c r="I243">
-        <v>57.673</v>
+        <v>57.673000000000002</v>
       </c>
       <c r="J243">
         <v>951</v>
@@ -16167,7 +16191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>983</v>
       </c>
@@ -16190,7 +16214,7 @@
         <v>1</v>
       </c>
       <c r="I244">
-        <v>164.175</v>
+        <v>164.17500000000001</v>
       </c>
       <c r="J244">
         <v>2707</v>
@@ -16211,7 +16235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>987</v>
       </c>
@@ -16255,7 +16279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>991</v>
       </c>
@@ -16278,7 +16302,7 @@
         <v>1</v>
       </c>
       <c r="I246">
-        <v>230.175</v>
+        <v>230.17500000000001</v>
       </c>
       <c r="J246">
         <v>3795</v>
@@ -16299,7 +16323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>995</v>
       </c>
@@ -16343,7 +16367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>999</v>
       </c>
@@ -16366,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="I248">
-        <v>14.344</v>
+        <v>14.343999999999999</v>
       </c>
       <c r="J248">
         <v>235</v>
@@ -16387,7 +16411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>1003</v>
       </c>
@@ -16410,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="I249">
-        <v>142.549</v>
+        <v>142.54900000000001</v>
       </c>
       <c r="J249">
         <v>2350</v>
@@ -16431,7 +16455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>1007</v>
       </c>
@@ -16454,7 +16478,7 @@
         <v>1</v>
       </c>
       <c r="I250">
-        <v>149.479</v>
+        <v>149.47900000000001</v>
       </c>
       <c r="J250">
         <v>2464</v>
@@ -16475,7 +16499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>1011</v>
       </c>
@@ -16519,7 +16543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>1015</v>
       </c>
@@ -16542,7 +16566,7 @@
         <v>1</v>
       </c>
       <c r="I252">
-        <v>224.224</v>
+        <v>224.22399999999999</v>
       </c>
       <c r="J252">
         <v>3697</v>
@@ -16563,7 +16587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>1019</v>
       </c>
@@ -16586,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="I253">
-        <v>35.926</v>
+        <v>35.926000000000002</v>
       </c>
       <c r="J253">
         <v>592</v>
@@ -16607,7 +16631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>1023</v>
       </c>
@@ -16630,7 +16654,7 @@
         <v>1</v>
       </c>
       <c r="I254">
-        <v>287.0890000000001</v>
+        <v>287.08900000000011</v>
       </c>
       <c r="J254">
         <v>4734</v>
@@ -16651,7 +16675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>1027</v>
       </c>
@@ -16674,7 +16698,7 @@
         <v>1</v>
       </c>
       <c r="I255">
-        <v>298.9690000000001</v>
+        <v>298.96900000000011</v>
       </c>
       <c r="J255">
         <v>4930</v>
@@ -16695,7 +16719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>1031</v>
       </c>
@@ -16739,7 +16763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>1035</v>
       </c>
@@ -16762,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="I257">
-        <v>37.411</v>
+        <v>37.411000000000001</v>
       </c>
       <c r="J257">
         <v>616</v>
@@ -16783,7 +16807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>1039</v>
       </c>
@@ -16806,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="I258">
-        <v>71.764</v>
+        <v>71.763999999999996</v>
       </c>
       <c r="J258">
         <v>1183</v>
@@ -16827,7 +16851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>1043</v>
       </c>
@@ -16850,7 +16874,7 @@
         <v>1</v>
       </c>
       <c r="I259">
-        <v>74.73400000000001</v>
+        <v>74.734000000000009</v>
       </c>
       <c r="J259">
         <v>1231</v>
@@ -16871,7 +16895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>1047</v>
       </c>
@@ -16912,7 +16936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>1050</v>
       </c>
@@ -16956,7 +16980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>1054</v>
       </c>
@@ -17000,7 +17024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>1058</v>
       </c>
@@ -17023,7 +17047,7 @@
         <v>1</v>
       </c>
       <c r="I263">
-        <v>33.451</v>
+        <v>33.451000000000001</v>
       </c>
       <c r="J263">
         <v>550</v>
@@ -17044,7 +17068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>1062</v>
       </c>
@@ -17067,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="I264">
-        <v>69.78400000000001</v>
+        <v>69.784000000000006</v>
       </c>
       <c r="J264">
         <v>1150</v>
@@ -17088,7 +17112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>1066</v>
       </c>
@@ -17132,7 +17156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>1070</v>
       </c>
@@ -17155,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="I266">
-        <v>208.384</v>
+        <v>208.38399999999999</v>
       </c>
       <c r="J266">
         <v>3436</v>
@@ -17176,7 +17200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>1074</v>
       </c>
@@ -17199,7 +17223,7 @@
         <v>1</v>
       </c>
       <c r="I267">
-        <v>277.189</v>
+        <v>277.18900000000002</v>
       </c>
       <c r="J267">
         <v>4570</v>
@@ -17220,7 +17244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>1078</v>
       </c>
@@ -17264,7 +17288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>1082</v>
       </c>
@@ -17305,7 +17329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>1085</v>
       </c>
@@ -17328,7 +17352,7 @@
         <v>1</v>
       </c>
       <c r="I270">
-        <v>2085.3</v>
+        <v>2085.3000000000002</v>
       </c>
       <c r="J270">
         <v>34392</v>
@@ -17349,7 +17373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>1089</v>
       </c>
@@ -17393,7 +17417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>1093</v>
       </c>
@@ -17437,7 +17461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>1097</v>
       </c>
@@ -17481,7 +17505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>1101</v>
       </c>
@@ -17504,7 +17528,7 @@
         <v>1</v>
       </c>
       <c r="I274">
-        <v>148.335</v>
+        <v>148.33500000000001</v>
       </c>
       <c r="J274">
         <v>2445</v>
@@ -17525,7 +17549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>1105</v>
       </c>
@@ -17548,7 +17572,7 @@
         <v>1</v>
       </c>
       <c r="I275">
-        <v>173.855</v>
+        <v>173.85499999999999</v>
       </c>
       <c r="J275">
         <v>2866</v>
@@ -17569,7 +17593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>1109</v>
       </c>
@@ -17592,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="I276">
-        <v>208.153</v>
+        <v>208.15299999999999</v>
       </c>
       <c r="J276">
         <v>3432</v>
@@ -17613,7 +17637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>1113</v>
       </c>
@@ -17657,7 +17681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>1117</v>
       </c>
@@ -17680,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="I278">
-        <v>271.15</v>
+        <v>271.14999999999998</v>
       </c>
       <c r="J278">
         <v>4471</v>
@@ -17701,7 +17725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>1121</v>
       </c>
@@ -17724,7 +17748,7 @@
         <v>1</v>
       </c>
       <c r="I279">
-        <v>301.455</v>
+        <v>301.45499999999998</v>
       </c>
       <c r="J279">
         <v>4971</v>
@@ -17745,7 +17769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>1125</v>
       </c>
@@ -17789,7 +17813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>1129</v>
       </c>
@@ -17833,7 +17857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>1133</v>
       </c>
@@ -17877,7 +17901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>1137</v>
       </c>
@@ -17921,7 +17945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>1141</v>
       </c>
@@ -17965,7 +17989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>1145</v>
       </c>
@@ -18009,7 +18033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>1149</v>
       </c>
@@ -18053,7 +18077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>1153</v>
       </c>
@@ -18097,7 +18121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>1157</v>
       </c>
@@ -18141,7 +18165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>1161</v>
       </c>
@@ -18185,7 +18209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>1165</v>
       </c>
@@ -18208,7 +18232,7 @@
         <v>1</v>
       </c>
       <c r="I290">
-        <v>592.33</v>
+        <v>592.33000000000004</v>
       </c>
       <c r="J290">
         <v>9768</v>
@@ -18229,7 +18253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>1169</v>
       </c>
@@ -18273,7 +18297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>1173</v>
       </c>
@@ -18317,7 +18341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>1177</v>
       </c>
@@ -18361,7 +18385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>1181</v>
       </c>
@@ -18405,7 +18429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>1185</v>
       </c>
@@ -18449,7 +18473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>1189</v>
       </c>
@@ -18493,7 +18517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>1193</v>
       </c>
@@ -18516,7 +18540,7 @@
         <v>1</v>
       </c>
       <c r="I297">
-        <v>301.455</v>
+        <v>301.45499999999998</v>
       </c>
       <c r="J297">
         <v>4971</v>
@@ -18537,7 +18561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>1197</v>
       </c>
@@ -18581,7 +18605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>1201</v>
       </c>
@@ -18625,7 +18649,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>1205</v>
       </c>
@@ -18666,7 +18690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>1208</v>
       </c>
@@ -18707,7 +18731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>1211</v>
       </c>
@@ -18751,7 +18775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>1215</v>
       </c>
@@ -18795,7 +18819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>1219</v>
       </c>
@@ -18818,7 +18842,7 @@
         <v>1</v>
       </c>
       <c r="I304">
-        <v>283.118</v>
+        <v>283.11799999999999</v>
       </c>
       <c r="J304">
         <v>4668</v>
@@ -18839,7 +18863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>1223</v>
       </c>
@@ -18883,7 +18907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>1227</v>
       </c>
@@ -18927,7 +18951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>1231</v>
       </c>
@@ -18968,7 +18992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>1234</v>
       </c>
@@ -19012,7 +19036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>1238</v>
       </c>
@@ -19032,7 +19056,7 @@
         <v>1</v>
       </c>
       <c r="I309">
-        <v>556.8</v>
+        <v>556.79999999999995</v>
       </c>
       <c r="J309">
         <v>9183</v>
@@ -19053,7 +19077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>1241</v>
       </c>
@@ -19094,7 +19118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>1244</v>
       </c>
@@ -19135,7 +19159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>1247</v>
       </c>
@@ -19158,7 +19182,7 @@
         <v>1</v>
       </c>
       <c r="I312">
-        <v>556.8</v>
+        <v>556.79999999999995</v>
       </c>
       <c r="J312">
         <v>9183</v>
@@ -19179,7 +19203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>1251</v>
       </c>
@@ -19220,7 +19244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>1254</v>
       </c>
@@ -19264,7 +19288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>1258</v>
       </c>
@@ -19308,7 +19332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>1262</v>
       </c>
@@ -19352,7 +19376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>1266</v>
       </c>
@@ -19396,7 +19420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>1270</v>
       </c>
@@ -19440,7 +19464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>1274</v>
       </c>
@@ -19481,7 +19505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>1277</v>
       </c>
@@ -19525,7 +19549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>1281</v>
       </c>
@@ -19548,7 +19572,7 @@
         <v>1</v>
       </c>
       <c r="I321">
-        <v>8.239000000000001</v>
+        <v>8.2390000000000008</v>
       </c>
       <c r="J321">
         <v>135</v>
@@ -19569,7 +19593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>1285</v>
       </c>
@@ -19613,7 +19637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>1289</v>
       </c>
@@ -19636,7 +19660,7 @@
         <v>1</v>
       </c>
       <c r="I323">
-        <v>164.175</v>
+        <v>164.17500000000001</v>
       </c>
       <c r="J323">
         <v>2707</v>
@@ -19657,7 +19681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>1293</v>
       </c>
@@ -19680,7 +19704,7 @@
         <v>1</v>
       </c>
       <c r="I324">
-        <v>287.925</v>
+        <v>287.92500000000001</v>
       </c>
       <c r="J324">
         <v>4747</v>
@@ -19701,7 +19725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>1297</v>
       </c>
@@ -19724,7 +19748,7 @@
         <v>1</v>
       </c>
       <c r="I325">
-        <v>329.175</v>
+        <v>329.17500000000001</v>
       </c>
       <c r="J325">
         <v>5428</v>
@@ -19745,7 +19769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>1301</v>
       </c>
@@ -19789,7 +19813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>1305</v>
       </c>
@@ -19833,7 +19857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>1309</v>
       </c>
@@ -19877,7 +19901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>1313</v>
       </c>
@@ -19900,7 +19924,7 @@
         <v>1</v>
       </c>
       <c r="I329">
-        <v>2532.74</v>
+        <v>2532.7399999999998</v>
       </c>
       <c r="J329">
         <v>41770</v>
@@ -19921,7 +19945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>1317</v>
       </c>
@@ -19965,7 +19989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>1321</v>
       </c>
@@ -20009,7 +20033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>1325</v>
       </c>
@@ -20053,7 +20077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>1329</v>
       </c>
@@ -20097,7 +20121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>1333</v>
       </c>
@@ -20141,7 +20165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>1337</v>
       </c>
@@ -20185,7 +20209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>1341</v>
       </c>
@@ -20229,7 +20253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>1345</v>
       </c>
@@ -20273,7 +20297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>1349</v>
       </c>
@@ -20317,7 +20341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>1353</v>
       </c>
@@ -20361,7 +20385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>1357</v>
       </c>
@@ -20405,7 +20429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>1361</v>
       </c>
@@ -20428,7 +20452,7 @@
         <v>1</v>
       </c>
       <c r="I341">
-        <v>915.0700000000001</v>
+        <v>915.07</v>
       </c>
       <c r="J341">
         <v>15091</v>
@@ -20449,7 +20473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>1365</v>
       </c>
@@ -20493,7 +20517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>1369</v>
       </c>
@@ -20537,7 +20561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>1373</v>
       </c>
@@ -20560,7 +20584,7 @@
         <v>1</v>
       </c>
       <c r="I344">
-        <v>547.8099999999999</v>
+        <v>547.80999999999995</v>
       </c>
       <c r="J344">
         <v>9034</v>
@@ -20581,7 +20605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>1377</v>
       </c>
@@ -20625,7 +20649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>1381</v>
       </c>
@@ -20669,7 +20693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>1385</v>
       </c>
@@ -20713,7 +20737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>1389</v>
       </c>
@@ -20757,7 +20781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>1393</v>
       </c>
@@ -20801,7 +20825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>1397</v>
       </c>
@@ -20845,7 +20869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>1401</v>
       </c>
@@ -20868,7 +20892,7 @@
         <v>1</v>
       </c>
       <c r="I351">
-        <v>164.175</v>
+        <v>164.17500000000001</v>
       </c>
       <c r="J351">
         <v>2707</v>
@@ -20889,7 +20913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>1405</v>
       </c>
@@ -20912,7 +20936,7 @@
         <v>1</v>
       </c>
       <c r="I352">
-        <v>263.164</v>
+        <v>263.16399999999999</v>
       </c>
       <c r="J352">
         <v>4339</v>
@@ -20933,7 +20957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>1409</v>
       </c>
@@ -20956,7 +20980,7 @@
         <v>1</v>
       </c>
       <c r="I353">
-        <v>218.878</v>
+        <v>218.87799999999999</v>
       </c>
       <c r="J353">
         <v>3609</v>
@@ -20977,7 +21001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>1413</v>
       </c>
@@ -21021,7 +21045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>1417</v>
       </c>
@@ -21065,7 +21089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>1421</v>
       </c>
@@ -21109,7 +21133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>1425</v>
       </c>
@@ -21153,7 +21177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>1429</v>
       </c>
@@ -21197,7 +21221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>1433</v>
       </c>
@@ -21241,7 +21265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>1437</v>
       </c>
@@ -21285,7 +21309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>1441</v>
       </c>
@@ -21326,7 +21350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>1444</v>
       </c>
@@ -21367,7 +21391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>1447</v>
       </c>
@@ -21408,7 +21432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="364" spans="1:15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>1450</v>
       </c>
@@ -21452,7 +21476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>1454</v>
       </c>
@@ -21475,7 +21499,7 @@
         <v>1</v>
       </c>
       <c r="I365">
-        <v>246.675</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="J365">
         <v>4068</v>
@@ -21496,7 +21520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>1458</v>
       </c>
@@ -21519,7 +21543,7 @@
         <v>1</v>
       </c>
       <c r="I366">
-        <v>64.35000000000001</v>
+        <v>64.350000000000009</v>
       </c>
       <c r="J366">
         <v>1060</v>
@@ -21540,7 +21564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>1462</v>
       </c>
@@ -21563,7 +21587,7 @@
         <v>1</v>
       </c>
       <c r="I367">
-        <v>128.7</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="J367">
         <v>2122</v>
@@ -21584,7 +21608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>1466</v>
       </c>
@@ -21628,7 +21652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>1470</v>
       </c>
@@ -21651,7 +21675,7 @@
         <v>1</v>
       </c>
       <c r="I369">
-        <v>257.4</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="J369">
         <v>4245</v>
@@ -21672,7 +21696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>1474</v>
       </c>
@@ -21695,7 +21719,7 @@
         <v>1</v>
       </c>
       <c r="I370">
-        <v>115.335</v>
+        <v>115.33499999999999</v>
       </c>
       <c r="J370">
         <v>1902</v>
@@ -21716,7 +21740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>1478</v>
       </c>
@@ -21760,7 +21784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>1482</v>
       </c>
@@ -21804,7 +21828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>1486</v>
       </c>
@@ -21848,7 +21872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>1490</v>
       </c>
@@ -21892,7 +21916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>1494</v>
       </c>
@@ -21936,7 +21960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>1498</v>
       </c>
@@ -21980,7 +22004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>1502</v>
       </c>
@@ -22024,7 +22048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>1506</v>
       </c>
@@ -22068,7 +22092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>1510</v>
       </c>
@@ -22112,7 +22136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>1514</v>
       </c>
@@ -22156,7 +22180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>1518</v>
       </c>
@@ -22200,7 +22224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>1522</v>
       </c>
@@ -22244,7 +22268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>1526</v>
       </c>
@@ -22288,7 +22312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>1530</v>
       </c>
@@ -22311,7 +22335,7 @@
         <v>1</v>
       </c>
       <c r="I384">
-        <v>4199.31</v>
+        <v>4199.3100000000004</v>
       </c>
       <c r="J384">
         <v>69256</v>
@@ -22332,7 +22356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>1534</v>
       </c>
@@ -22355,7 +22379,7 @@
         <v>1</v>
       </c>
       <c r="I385">
-        <v>287.925</v>
+        <v>287.92500000000001</v>
       </c>
       <c r="J385">
         <v>4747</v>
@@ -22376,7 +22400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>1538</v>
       </c>
@@ -22420,7 +22444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>1542</v>
       </c>
@@ -22443,7 +22467,7 @@
         <v>1</v>
       </c>
       <c r="I387">
-        <v>16.489</v>
+        <v>16.489000000000001</v>
       </c>
       <c r="J387">
         <v>271</v>
@@ -22464,7 +22488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>1546</v>
       </c>
@@ -22508,7 +22532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>1550</v>
       </c>
@@ -22552,7 +22576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>1554</v>
       </c>
@@ -22596,7 +22620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>1558</v>
       </c>
@@ -22640,7 +22664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>1562</v>
       </c>
@@ -22684,7 +22708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>1566</v>
       </c>
@@ -22728,7 +22752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>1570</v>
       </c>
@@ -22751,7 +22775,7 @@
         <v>1</v>
       </c>
       <c r="I394">
-        <v>84.15000000000001</v>
+        <v>84.15</v>
       </c>
       <c r="J394">
         <v>1387</v>
@@ -22772,7 +22796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>1574</v>
       </c>
@@ -22816,7 +22840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>1578</v>
       </c>
@@ -22860,7 +22884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>1582</v>
       </c>
@@ -22883,7 +22907,7 @@
         <v>1</v>
       </c>
       <c r="I397">
-        <v>99.00000000000001</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="J397">
         <v>1632</v>
@@ -22904,7 +22928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>1586</v>
       </c>
@@ -22927,7 +22951,7 @@
         <v>1</v>
       </c>
       <c r="I398">
-        <v>113.025</v>
+        <v>113.02500000000001</v>
       </c>
       <c r="J398">
         <v>1863</v>
@@ -22948,7 +22972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>1590</v>
       </c>
@@ -22971,7 +22995,7 @@
         <v>1</v>
       </c>
       <c r="I399">
-        <v>136.95</v>
+        <v>136.94999999999999</v>
       </c>
       <c r="J399">
         <v>2257</v>
@@ -22992,7 +23016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>1594</v>
       </c>
@@ -23015,7 +23039,7 @@
         <v>1</v>
       </c>
       <c r="I400">
-        <v>113.025</v>
+        <v>113.02500000000001</v>
       </c>
       <c r="J400">
         <v>1863</v>
@@ -23036,7 +23060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>1598</v>
       </c>
@@ -23080,7 +23104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>1602</v>
       </c>
@@ -23103,7 +23127,7 @@
         <v>1</v>
       </c>
       <c r="I402">
-        <v>150.975</v>
+        <v>150.97499999999999</v>
       </c>
       <c r="J402">
         <v>2488</v>
@@ -23124,7 +23148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>1606</v>
       </c>
@@ -23168,7 +23192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>1610</v>
       </c>
@@ -23191,7 +23215,7 @@
         <v>1</v>
       </c>
       <c r="I404">
-        <v>164.175</v>
+        <v>164.17500000000001</v>
       </c>
       <c r="J404">
         <v>2707</v>
@@ -23212,7 +23236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>1614</v>
       </c>
@@ -23256,7 +23280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>1618</v>
       </c>
@@ -23279,7 +23303,7 @@
         <v>1</v>
       </c>
       <c r="I406">
-        <v>139.425</v>
+        <v>139.42500000000001</v>
       </c>
       <c r="J406">
         <v>2298</v>
@@ -23300,7 +23324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>1622</v>
       </c>
@@ -23344,7 +23368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>1626</v>
       </c>
@@ -23388,7 +23412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>1630</v>
       </c>
@@ -23432,7 +23456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>1634</v>
       </c>
@@ -23455,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="I410">
-        <v>61.87500000000001</v>
+        <v>61.875000000000007</v>
       </c>
       <c r="J410">
         <v>1020</v>
@@ -23476,7 +23500,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>1638</v>
       </c>
@@ -23520,7 +23544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>1642</v>
       </c>
@@ -23564,7 +23588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>1646</v>
       </c>
@@ -23608,7 +23632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>1650</v>
       </c>
@@ -23652,7 +23676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>1654</v>
       </c>
@@ -23696,7 +23720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>1658</v>
       </c>
@@ -23740,7 +23764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>1662</v>
       </c>
@@ -23784,7 +23808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>1666</v>
       </c>
@@ -23828,7 +23852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>1670</v>
       </c>
@@ -23872,7 +23896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>1674</v>
       </c>
@@ -23916,7 +23940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>1678</v>
       </c>
@@ -23960,7 +23984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>1682</v>
       </c>
@@ -23983,7 +24007,7 @@
         <v>1</v>
       </c>
       <c r="I422">
-        <v>246.675</v>
+        <v>246.67500000000001</v>
       </c>
       <c r="J422">
         <v>4068</v>
@@ -24004,7 +24028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>1686</v>
       </c>
@@ -24048,7 +24072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>1690</v>
       </c>
@@ -24092,7 +24116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>1694</v>
       </c>
@@ -24115,7 +24139,7 @@
         <v>1</v>
       </c>
       <c r="I425">
-        <v>188.925</v>
+        <v>188.92500000000001</v>
       </c>
       <c r="J425">
         <v>3115</v>
@@ -24136,7 +24160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>1698</v>
       </c>
@@ -24180,21 +24204,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B427" t="s">
         <v>1702</v>
       </c>
-      <c r="B427" t="s">
+      <c r="C427" t="s">
         <v>1703</v>
       </c>
-      <c r="C427" t="s">
+      <c r="D427" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E427" t="s">
         <v>1704</v>
-      </c>
-      <c r="D427" t="s">
-        <v>1703</v>
-      </c>
-      <c r="E427" t="s">
-        <v>1705</v>
       </c>
       <c r="F427" t="s">
         <v>20</v>
@@ -24221,6 +24245,44 @@
         <v>5</v>
       </c>
       <c r="O427" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F428" t="s">
+        <v>20</v>
+      </c>
+      <c r="G428">
+        <v>1</v>
+      </c>
+      <c r="J428">
+        <v>9882</v>
+      </c>
+      <c r="K428">
+        <v>10013</v>
+      </c>
+      <c r="L428">
+        <v>10211</v>
+      </c>
+      <c r="M428">
+        <v>10549</v>
+      </c>
+      <c r="N428">
+        <v>5</v>
+      </c>
+      <c r="O428" t="s">
         <v>21</v>
       </c>
     </row>
